--- a/out/dimension_1/deba3/stat.xlsx
+++ b/out/dimension_1/deba3/stat.xlsx
@@ -1047,10 +1047,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1600</v>
+        <v>31000</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1059,40 +1059,40 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>0.08333333333333333</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9166666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="K3">
-        <v>1500</v>
+        <v>30500</v>
       </c>
       <c r="L3">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>0.05263157894736842</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="Q3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.9473684210526315</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="T3">
-        <v>1400</v>
+        <v>28300</v>
       </c>
       <c r="U3">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -1101,19 +1101,19 @@
         <v>5</v>
       </c>
       <c r="Y3">
-        <v>0.0641025641025641</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.9358974358974359</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="AC3">
-        <v>1600</v>
+        <v>33200</v>
       </c>
       <c r="AD3">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="AE3">
         <v>5</v>
@@ -1122,19 +1122,19 @@
         <v>5</v>
       </c>
       <c r="AH3">
-        <v>0.09259259259259259</v>
+        <v>0.3125</v>
       </c>
       <c r="AI3">
         <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9074074074074074</v>
+        <v>0.6875</v>
       </c>
       <c r="AL3">
-        <v>1800</v>
+        <v>36600</v>
       </c>
       <c r="AM3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AN3">
         <v>5</v>
@@ -1143,19 +1143,19 @@
         <v>5</v>
       </c>
       <c r="AQ3">
-        <v>0.1724137931034483</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AR3">
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.8275862068965517</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AU3">
-        <v>1400</v>
+        <v>43000</v>
       </c>
       <c r="AV3">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="AW3">
         <v>5</v>
@@ -1164,19 +1164,19 @@
         <v>5</v>
       </c>
       <c r="AZ3">
-        <v>0.06172839506172839</v>
+        <v>0.625</v>
       </c>
       <c r="BA3">
         <v>1</v>
       </c>
       <c r="BC3">
-        <v>0.9382716049382716</v>
+        <v>0.375</v>
       </c>
       <c r="BD3">
-        <v>1900</v>
+        <v>36500</v>
       </c>
       <c r="BE3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BF3">
         <v>5</v>
@@ -1185,19 +1185,19 @@
         <v>5</v>
       </c>
       <c r="BI3">
-        <v>0.29411764705882354</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="BJ3">
         <v>1</v>
       </c>
       <c r="BL3">
-        <v>0.7058823529411765</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="BM3">
-        <v>1400</v>
+        <v>36100</v>
       </c>
       <c r="BN3">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="BO3">
         <v>5</v>
@@ -1206,19 +1206,19 @@
         <v>5</v>
       </c>
       <c r="BR3">
-        <v>0.0641025641025641</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="BS3">
         <v>1</v>
       </c>
       <c r="BU3">
-        <v>0.9358974358974359</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="BV3">
-        <v>1400</v>
+        <v>34600</v>
       </c>
       <c r="BW3">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="BX3">
         <v>5</v>
@@ -1227,67 +1227,67 @@
         <v>5</v>
       </c>
       <c r="CA3">
-        <v>0.05952380952380952</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="CB3">
         <v>1</v>
       </c>
       <c r="CD3">
-        <v>0.9404761904761905</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="CE3">
-        <v>1900</v>
+        <v>29900</v>
       </c>
       <c r="CF3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="CG3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CH3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CJ3">
-        <v>0.6</v>
+        <v>0.3125</v>
       </c>
       <c r="CK3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="CM3">
-        <v>0.4</v>
+        <v>0.6875</v>
       </c>
       <c r="CN3">
-        <v>1590</v>
+        <v>33970</v>
       </c>
       <c r="CO3">
-        <v>56.2</v>
+        <v>14.5</v>
       </c>
       <c r="CP3">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="CQ3">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="CR3" t="str">
         <v/>
       </c>
       <c r="CS3">
-        <v>0.15445462778262323</v>
+        <v>0.36112727142138906</v>
       </c>
       <c r="CT3">
-        <v>0.9400000000000001</v>
+        <v>1</v>
       </c>
       <c r="CU3" t="str">
         <v/>
       </c>
       <c r="CV3">
-        <v>0.8455453722173768</v>
+        <v>0.6388727285786111</v>
       </c>
       <c r="CW3">
-        <v>1400</v>
+        <v>28300</v>
       </c>
       <c r="CX3">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="CY3">
         <v>5</v>
@@ -1296,13 +1296,13 @@
         <v>5</v>
       </c>
       <c r="DB3">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="DC3">
         <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="DF3">
         <v>100</v>
@@ -1313,52 +1313,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1400</v>
+        <v>46300</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>0.05952380952380952</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J4">
-        <v>0.9404761904761905</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="K4">
-        <v>1400</v>
+        <v>31000</v>
       </c>
       <c r="L4">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>0.04878048780487805</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="Q4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.9512195121951219</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="T4">
-        <v>1400</v>
+        <v>38600</v>
       </c>
       <c r="U4">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -1367,19 +1367,19 @@
         <v>5</v>
       </c>
       <c r="Y4">
-        <v>0.06172839506172839</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9382716049382716</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="AC4">
-        <v>1500</v>
+        <v>37700</v>
       </c>
       <c r="AD4">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AE4">
         <v>5</v>
@@ -1388,19 +1388,19 @@
         <v>5</v>
       </c>
       <c r="AH4">
-        <v>0.0625</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="AI4">
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9375</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="AL4">
-        <v>2100</v>
+        <v>30800</v>
       </c>
       <c r="AM4">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="AN4">
         <v>5</v>
@@ -1409,19 +1409,19 @@
         <v>5</v>
       </c>
       <c r="AQ4">
-        <v>0.078125</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="AR4">
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.921875</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="AU4">
-        <v>1400</v>
+        <v>16400</v>
       </c>
       <c r="AV4">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="AW4">
         <v>5</v>
@@ -1430,19 +1430,19 @@
         <v>5</v>
       </c>
       <c r="AZ4">
-        <v>0.06172839506172839</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="BA4">
         <v>1</v>
       </c>
       <c r="BC4">
-        <v>0.9382716049382716</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="BD4">
-        <v>2100</v>
+        <v>12200</v>
       </c>
       <c r="BE4">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BF4">
         <v>5</v>
@@ -1451,19 +1451,19 @@
         <v>5</v>
       </c>
       <c r="BI4">
-        <v>0.08771929824561403</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="BJ4">
         <v>1</v>
       </c>
       <c r="BL4">
-        <v>0.9122807017543859</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="BM4">
-        <v>1400</v>
+        <v>36000</v>
       </c>
       <c r="BN4">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="BO4">
         <v>5</v>
@@ -1472,19 +1472,19 @@
         <v>5</v>
       </c>
       <c r="BR4">
-        <v>0.06329113924050633</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="BS4">
         <v>1</v>
       </c>
       <c r="BU4">
-        <v>0.9367088607594937</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="BV4">
-        <v>1400</v>
+        <v>13000</v>
       </c>
       <c r="BW4">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="BX4">
         <v>5</v>
@@ -1493,67 +1493,67 @@
         <v>5</v>
       </c>
       <c r="CA4">
-        <v>0.05952380952380952</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="CB4">
         <v>1</v>
       </c>
       <c r="CD4">
-        <v>0.9404761904761905</v>
+        <v>0.8958333333333334</v>
       </c>
       <c r="CE4">
-        <v>1800</v>
+        <v>12700</v>
       </c>
       <c r="CF4">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="CG4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CH4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CJ4">
-        <v>0.0625</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="CK4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="CM4">
-        <v>0.9375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="CN4">
-        <v>1590</v>
+        <v>27470</v>
       </c>
       <c r="CO4">
-        <v>74</v>
+        <v>41.1</v>
       </c>
       <c r="CP4">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="CQ4">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="CR4" t="str">
         <v/>
       </c>
       <c r="CS4">
-        <v>0.06454203344620743</v>
+        <v>0.12111363695010313</v>
       </c>
       <c r="CT4">
-        <v>0.9400000000000001</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="CU4" t="str">
         <v/>
       </c>
       <c r="CV4">
-        <v>0.9354579665537924</v>
+        <v>0.878886363049897</v>
       </c>
       <c r="CW4">
-        <v>1400</v>
+        <v>12200</v>
       </c>
       <c r="CX4">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="CY4">
         <v>5</v>
@@ -1562,13 +1562,13 @@
         <v>5</v>
       </c>
       <c r="DB4">
-        <v>0.08771929824561403</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="DC4">
         <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.9122807017543859</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="DF4">
         <v>100</v>
@@ -1579,262 +1579,262 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>47600</v>
+        <v>14300</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="H5">
+        <v>0.8</v>
+      </c>
+      <c r="J5">
+        <v>0.75</v>
+      </c>
+      <c r="K5">
+        <v>15700</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="Q5">
+        <v>0.8</v>
+      </c>
+      <c r="S5">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="T5">
+        <v>16100</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
         <v>0.2</v>
       </c>
-      <c r="J5">
-        <v>0.875</v>
-      </c>
-      <c r="K5">
-        <v>7800</v>
-      </c>
-      <c r="L5">
-        <v>38</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="Q5">
+      <c r="Z5">
+        <v>0.8</v>
+      </c>
+      <c r="AB5">
+        <v>0.8</v>
+      </c>
+      <c r="AC5">
+        <v>18300</v>
+      </c>
+      <c r="AD5">
+        <v>13</v>
+      </c>
+      <c r="AE5">
+        <v>5</v>
+      </c>
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AH5">
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="AL5">
+        <v>16300</v>
+      </c>
+      <c r="AM5">
+        <v>15</v>
+      </c>
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AO5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0.2</v>
+      </c>
+      <c r="AR5">
+        <v>0.6</v>
+      </c>
+      <c r="AT5">
+        <v>0.8</v>
+      </c>
+      <c r="AU5">
+        <v>13700</v>
+      </c>
+      <c r="AV5">
+        <v>16</v>
+      </c>
+      <c r="AW5">
+        <v>4</v>
+      </c>
+      <c r="AX5">
+        <v>4</v>
+      </c>
+      <c r="AZ5">
+        <v>0.25</v>
+      </c>
+      <c r="BA5">
+        <v>0.8</v>
+      </c>
+      <c r="BC5">
+        <v>0.75</v>
+      </c>
+      <c r="BD5">
+        <v>13800</v>
+      </c>
+      <c r="BE5">
+        <v>20</v>
+      </c>
+      <c r="BF5">
+        <v>4</v>
+      </c>
+      <c r="BG5">
+        <v>4</v>
+      </c>
+      <c r="BI5">
+        <v>0.2</v>
+      </c>
+      <c r="BJ5">
+        <v>0.8</v>
+      </c>
+      <c r="BL5">
+        <v>0.8</v>
+      </c>
+      <c r="BM5">
+        <v>13400</v>
+      </c>
+      <c r="BN5">
+        <v>16</v>
+      </c>
+      <c r="BO5">
+        <v>5</v>
+      </c>
+      <c r="BP5">
+        <v>5</v>
+      </c>
+      <c r="BR5">
+        <v>0.3125</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>0.6875</v>
+      </c>
+      <c r="BV5">
+        <v>14900</v>
+      </c>
+      <c r="BW5">
+        <v>10</v>
+      </c>
+      <c r="BX5">
+        <v>4</v>
+      </c>
+      <c r="BY5">
+        <v>4</v>
+      </c>
+      <c r="CA5">
         <v>0.4</v>
       </c>
-      <c r="S5">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="T5">
-        <v>15000</v>
-      </c>
-      <c r="U5">
-        <v>31</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="Z5">
-        <v>0.2</v>
-      </c>
-      <c r="AB5">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="AC5">
-        <v>16500</v>
-      </c>
-      <c r="AD5">
-        <v>28</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="AI5">
-        <v>0.2</v>
-      </c>
-      <c r="AK5">
-        <v>0.9642857142857143</v>
-      </c>
-      <c r="AL5">
-        <v>19600</v>
-      </c>
-      <c r="AM5">
-        <v>14</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="AR5">
-        <v>0.2</v>
-      </c>
-      <c r="AT5">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="AU5">
-        <v>13500</v>
-      </c>
-      <c r="AV5">
-        <v>30</v>
-      </c>
-      <c r="AW5">
-        <v>2</v>
-      </c>
-      <c r="AX5">
-        <v>2</v>
-      </c>
-      <c r="AZ5">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="BA5">
+      <c r="CB5">
+        <v>0.8</v>
+      </c>
+      <c r="CD5">
+        <v>0.6</v>
+      </c>
+      <c r="CE5">
+        <v>15300</v>
+      </c>
+      <c r="CF5">
+        <v>17</v>
+      </c>
+      <c r="CG5">
+        <v>4</v>
+      </c>
+      <c r="CH5">
+        <v>4</v>
+      </c>
+      <c r="CJ5">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="CK5">
+        <v>0.8</v>
+      </c>
+      <c r="CM5">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="CN5">
+        <v>15180</v>
+      </c>
+      <c r="CO5">
+        <v>15.6</v>
+      </c>
+      <c r="CP5">
+        <v>4.1</v>
+      </c>
+      <c r="CQ5">
+        <v>4.1</v>
+      </c>
+      <c r="CR5" t="str">
+        <v/>
+      </c>
+      <c r="CS5">
+        <v>0.2740101809954751</v>
+      </c>
+      <c r="CT5">
+        <v>0.82</v>
+      </c>
+      <c r="CU5" t="str">
+        <v/>
+      </c>
+      <c r="CV5">
+        <v>0.7259898190045249</v>
+      </c>
+      <c r="CW5">
+        <v>13400</v>
+      </c>
+      <c r="CX5">
+        <v>20</v>
+      </c>
+      <c r="CY5">
+        <v>5</v>
+      </c>
+      <c r="CZ5">
+        <v>5</v>
+      </c>
+      <c r="DB5">
         <v>0.4</v>
       </c>
-      <c r="BC5">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="BD5">
-        <v>14600</v>
-      </c>
-      <c r="BE5">
-        <v>31</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>1</v>
-      </c>
-      <c r="BM5">
-        <v>13300</v>
-      </c>
-      <c r="BN5">
-        <v>31</v>
-      </c>
-      <c r="BO5">
-        <v>1</v>
-      </c>
-      <c r="BP5">
-        <v>1</v>
-      </c>
-      <c r="BR5">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="BS5">
-        <v>0.2</v>
-      </c>
-      <c r="BU5">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="BV5">
-        <v>15800</v>
-      </c>
-      <c r="BW5">
-        <v>32</v>
-      </c>
-      <c r="BX5">
-        <v>1</v>
-      </c>
-      <c r="BY5">
-        <v>1</v>
-      </c>
-      <c r="CA5">
-        <v>0.03125</v>
-      </c>
-      <c r="CB5">
-        <v>0.2</v>
-      </c>
-      <c r="CD5">
-        <v>0.96875</v>
-      </c>
-      <c r="CE5">
-        <v>35400</v>
-      </c>
-      <c r="CF5">
-        <v>7</v>
-      </c>
-      <c r="CG5">
-        <v>1</v>
-      </c>
-      <c r="CH5">
-        <v>1</v>
-      </c>
-      <c r="CJ5">
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="CK5">
-        <v>0.2</v>
-      </c>
-      <c r="CM5">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="CN5">
-        <v>19910</v>
-      </c>
-      <c r="CO5">
-        <v>25</v>
-      </c>
-      <c r="CP5">
-        <v>1.1</v>
-      </c>
-      <c r="CQ5">
-        <v>1.1</v>
-      </c>
-      <c r="CR5" t="str">
-        <v/>
-      </c>
-      <c r="CS5">
-        <v>0.0590064374646293</v>
-      </c>
-      <c r="CT5">
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="CU5" t="str">
-        <v/>
-      </c>
-      <c r="CV5">
-        <v>0.9409935625353707</v>
-      </c>
-      <c r="CW5">
-        <v>7800</v>
-      </c>
-      <c r="CX5">
-        <v>38</v>
-      </c>
-      <c r="CY5">
-        <v>2</v>
-      </c>
-      <c r="CZ5">
-        <v>2</v>
-      </c>
-      <c r="DB5">
-        <v>0.14285714285714285</v>
-      </c>
       <c r="DC5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="DE5">
-        <v>0.8571428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="DF5">
         <v>100</v>
@@ -1845,10 +1845,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1400</v>
+        <v>21900</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1857,40 +1857,40 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>0.05952380952380952</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9404761904761905</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="K6">
-        <v>1400</v>
+        <v>43900</v>
       </c>
       <c r="L6">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>0.04878048780487805</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="Q6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.9512195121951219</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="T6">
-        <v>1400</v>
+        <v>11200</v>
       </c>
       <c r="U6">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -1899,19 +1899,19 @@
         <v>5</v>
       </c>
       <c r="Y6">
-        <v>0.06172839506172839</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9382716049382716</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="AC6">
-        <v>1400</v>
+        <v>52800</v>
       </c>
       <c r="AD6">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AE6">
         <v>5</v>
@@ -1920,19 +1920,19 @@
         <v>5</v>
       </c>
       <c r="AH6">
-        <v>0.06097560975609756</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="AI6">
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9390243902439024</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AL6">
-        <v>3100</v>
+        <v>6100</v>
       </c>
       <c r="AM6">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AN6">
         <v>5</v>
@@ -1941,19 +1941,19 @@
         <v>5</v>
       </c>
       <c r="AQ6">
-        <v>0.060240963855421686</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AR6">
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9397590361445783</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="AU6">
-        <v>1400</v>
+        <v>16700</v>
       </c>
       <c r="AV6">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AW6">
         <v>5</v>
@@ -1962,19 +1962,19 @@
         <v>5</v>
       </c>
       <c r="AZ6">
-        <v>0.06172839506172839</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="BA6">
         <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9382716049382716</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="BD6">
-        <v>1500</v>
+        <v>20900</v>
       </c>
       <c r="BE6">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="BF6">
         <v>5</v>
@@ -1983,19 +1983,19 @@
         <v>5</v>
       </c>
       <c r="BI6">
-        <v>0.05952380952380952</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="BJ6">
         <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9404761904761905</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="BM6">
-        <v>1400</v>
+        <v>35200</v>
       </c>
       <c r="BN6">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="BO6">
         <v>5</v>
@@ -2004,19 +2004,19 @@
         <v>5</v>
       </c>
       <c r="BR6">
-        <v>0.06329113924050633</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="BS6">
         <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9367088607594937</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="BV6">
-        <v>1400</v>
+        <v>12400</v>
       </c>
       <c r="BW6">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="BX6">
         <v>5</v>
@@ -2025,67 +2025,67 @@
         <v>5</v>
       </c>
       <c r="CA6">
-        <v>0.05952380952380952</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="CB6">
         <v>1</v>
       </c>
       <c r="CD6">
-        <v>0.9404761904761905</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="CE6">
-        <v>1900</v>
+        <v>26900</v>
       </c>
       <c r="CF6">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="CG6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ6">
-        <v>0.047619047619047616</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="CK6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="CM6">
-        <v>0.9523809523809523</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="CN6">
-        <v>1630</v>
+        <v>24800</v>
       </c>
       <c r="CO6">
-        <v>82.4</v>
+        <v>56.4</v>
       </c>
       <c r="CP6">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="CQ6">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="CR6" t="str">
         <v/>
       </c>
       <c r="CS6">
-        <v>0.05829354669708366</v>
+        <v>0.08891871729997876</v>
       </c>
       <c r="CT6">
-        <v>0.9600000000000002</v>
+        <v>1</v>
       </c>
       <c r="CU6" t="str">
         <v/>
       </c>
       <c r="CV6">
-        <v>0.9417064533029162</v>
+        <v>0.9110812827000213</v>
       </c>
       <c r="CW6">
-        <v>1400</v>
+        <v>6100</v>
       </c>
       <c r="CX6">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="CY6">
         <v>5</v>
@@ -2094,13 +2094,13 @@
         <v>5</v>
       </c>
       <c r="DB6">
-        <v>0.06329113924050633</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="DC6">
         <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.9367088607594937</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="DF6">
         <v>100</v>
